--- a/exdata.xlsx
+++ b/exdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,145 +434,115 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Дата</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Курс</t>
+          <t>Курс $</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>2024-09-24</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>92.74155004487416</v>
+      <c r="B2" t="n">
+        <v>98.53322062115052</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>2024-09-25</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>94.92406372188348</v>
+      <c r="B3" t="n">
+        <v>97.25315874312253</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>2024-09-26</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>94.12553874464427</v>
+      <c r="B4" t="n">
+        <v>99.12333694755333</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>2024-09-27</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>94.98649726319984</v>
+      <c r="B5" t="n">
+        <v>99.0281114103462</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>2024-09-28</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>96.4672001186906</v>
+      <c r="B6" t="n">
+        <v>100.2112060165572</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>2024-09-29</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>97.76521105237404</v>
+      <c r="B7" t="n">
+        <v>100.7338589472627</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>2024-09-30</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>97.34252999608336</v>
+      <c r="B8" t="n">
+        <v>101.6161547830696</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>2024-10-01</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>97.60913462016944</v>
+      <c r="B9" t="n">
+        <v>102.9741583220931</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>2024-10-02</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>97.43770187334106</v>
+      <c r="B10" t="n">
+        <v>102.0055819524766</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>2024-10-03</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>98.76942958704628</v>
+      <c r="B11" t="n">
+        <v>100.6140175901043</v>
       </c>
     </row>
   </sheetData>
